--- a/Osativa/05_excel/bs13a.xlsx
+++ b/Osativa/05_excel/bs13a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/D6309596-DC8D-4933-96AB-EDD99C9B5270/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/469C5A83-DA16-4B0F-B0AD-BD1608AB2120/192.168.10.18/disk6/pzhou/projects/barn/Osativa/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D37AA-7FEE-B142-B72E-5ADAFBEC3054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCB619-5CCF-884E-8D16-6FC74FBDBE7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1680" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="8060" yWindow="1240" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>SampleID</t>
   </si>
@@ -61,16 +61,214 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>SRR618562</t>
+  </si>
+  <si>
+    <t>SRR618561</t>
+  </si>
+  <si>
+    <t>SRR618560</t>
+  </si>
+  <si>
+    <t>SRR618559</t>
+  </si>
+  <si>
+    <t>SRR618558</t>
+  </si>
+  <si>
+    <t>SRR618557</t>
+  </si>
+  <si>
+    <t>SRR618556</t>
+  </si>
+  <si>
+    <t>SRR618555</t>
+  </si>
+  <si>
+    <t>SRR618554</t>
+  </si>
+  <si>
+    <t>SRR618553</t>
+  </si>
+  <si>
+    <t>SRR618552</t>
+  </si>
+  <si>
+    <t>SRR618551</t>
+  </si>
+  <si>
+    <t>SRR618550</t>
+  </si>
+  <si>
+    <t>SRR618549</t>
+  </si>
+  <si>
+    <t>SRR618548</t>
+  </si>
+  <si>
+    <t>SRR618547</t>
+  </si>
+  <si>
+    <t>SRR618546</t>
+  </si>
+  <si>
+    <t>SRR618545</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>PiZt-839-8-S</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>PiZt-839-8-R</t>
+  </si>
+  <si>
+    <t>Spin1i-1-R</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>Pi9-R</t>
+  </si>
+  <si>
+    <t>PiZt-11-R</t>
+  </si>
+  <si>
+    <t>PiZt-11-S</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>tissue culture</t>
+  </si>
+  <si>
+    <t>Callus</t>
+  </si>
+  <si>
+    <t>WT_2011</t>
+  </si>
+  <si>
+    <t>WT_tissue_culture</t>
+  </si>
+  <si>
+    <t>WT_Callus</t>
+  </si>
+  <si>
+    <t>PiZt-839-8-S_T2</t>
+  </si>
+  <si>
+    <t>PiZt-839-8-R_T2</t>
+  </si>
+  <si>
+    <t>Spin1i-1-R_T6</t>
+  </si>
+  <si>
+    <t>Pi9-R_T6</t>
+  </si>
+  <si>
+    <t>PiZt-11-R_T6</t>
+  </si>
+  <si>
+    <t>PiZt-11-S_T4</t>
+  </si>
+  <si>
+    <t>PiZt-11-R_T4</t>
+  </si>
+  <si>
+    <t>PiZt-11-S_T2</t>
+  </si>
+  <si>
+    <t>PiZt-11-R_T2</t>
+  </si>
+  <si>
+    <t>WT_2007</t>
+  </si>
+  <si>
+    <t>WT_2003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +622,7 @@
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,28 +639,500 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>2011</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>253971827</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>252306428</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>225202113</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>218008835</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>199261493</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>217121522</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>211006119</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>238730281</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>215451022</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>204752699</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>237280137</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>252150298</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>270670871</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>263329602</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>229650259</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>2011</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>187803109</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>2007</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>203541357</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>2003</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>231568902</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>